--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-348640.806811953</v>
+        <v>-351254.0930776278</v>
       </c>
     </row>
     <row r="7">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>243.5104644717873</v>
+        <v>16.30825369913649</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>240.0894393527544</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>6.128714607533588</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>180.5935070739812</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>148.0827329074493</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>181.4060200270668</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1069,7 +1069,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>91.55881951254666</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>222.2518615208589</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>35.73374147530553</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>202.5506935569452</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>54.7005692931417</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>36.96149496452465</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6452826062320446</v>
+        <v>0.0127623547350538</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>5.421623586786571</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238299</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>78.71385496658196</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>227.342275472664</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>162.15148309706</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>113.6427030833194</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>31.40247677522955</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,13 +2770,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.7513807668935</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3190,10 +3190,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>6.600826611594925</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3317,10 +3317,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576182</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8253826161908883</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545303</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1114.590053819431</v>
+        <v>861.3216348137582</v>
       </c>
       <c r="C2" t="n">
-        <v>1114.590053819431</v>
+        <v>492.3591178733465</v>
       </c>
       <c r="D2" t="n">
-        <v>756.324355212681</v>
+        <v>134.093419266596</v>
       </c>
       <c r="E2" t="n">
-        <v>370.5361026144367</v>
+        <v>134.093419266596</v>
       </c>
       <c r="F2" t="n">
-        <v>363.5906018652332</v>
+        <v>134.093419266596</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4325,16 +4325,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,22 +4358,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>1857.498041065357</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>1504.729385795243</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X2" t="n">
-        <v>1504.729385795243</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y2" t="n">
-        <v>1114.590053819431</v>
+        <v>861.3216348137582</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>168.00081891452</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380228</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694945</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>644.9053651971361</v>
+        <v>354.4439942939397</v>
       </c>
       <c r="C4" t="n">
-        <v>644.9053651971361</v>
+        <v>354.4439942939397</v>
       </c>
       <c r="D4" t="n">
-        <v>494.7887257848004</v>
+        <v>204.327354881604</v>
       </c>
       <c r="E4" t="n">
-        <v>346.8756322024072</v>
+        <v>204.327354881604</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>57.4374073836936</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>57.4374073836936</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1048.115628253779</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V4" t="n">
-        <v>1048.115628253779</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W4" t="n">
-        <v>1048.115628253779</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="X4" t="n">
-        <v>865.6979443406663</v>
+        <v>575.2365734374698</v>
       </c>
       <c r="Y4" t="n">
-        <v>644.9053651971361</v>
+        <v>354.4439942939397</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1452.155307492517</v>
+        <v>990.2034880760491</v>
       </c>
       <c r="C5" t="n">
-        <v>1452.155307492517</v>
+        <v>990.2034880760491</v>
       </c>
       <c r="D5" t="n">
-        <v>1093.889608885766</v>
+        <v>631.9377894692987</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>246.1495368710544</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4595,22 +4595,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.89447953245</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>2228.89447953245</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X5" t="n">
-        <v>2228.89447953245</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y5" t="n">
-        <v>1838.755147556638</v>
+        <v>990.2034880760491</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>686.1991671823603</v>
+        <v>834.938065318854</v>
       </c>
       <c r="C7" t="n">
-        <v>517.2629842544534</v>
+        <v>666.0018823909471</v>
       </c>
       <c r="D7" t="n">
-        <v>367.1463448421176</v>
+        <v>515.8852429786114</v>
       </c>
       <c r="E7" t="n">
-        <v>219.2332512597245</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1543.962464001218</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1347.333716161079</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1124.355235355815</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1124.355235355815</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>1124.355235355815</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.344461831649</v>
+        <v>834.938065318854</v>
       </c>
       <c r="X7" t="n">
-        <v>867.8476320126</v>
+        <v>834.938065318854</v>
       </c>
       <c r="Y7" t="n">
-        <v>867.8476320126</v>
+        <v>834.938065318854</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1201.12525314008</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="C8" t="n">
-        <v>832.1627361996682</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="D8" t="n">
-        <v>473.8970375929177</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2526.244640041261</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2317.498998647086</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2317.498998647086</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>2317.498998647086</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W8" t="n">
-        <v>1964.730343376971</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X8" t="n">
-        <v>1591.264585115892</v>
+        <v>2024.297819373919</v>
       </c>
       <c r="Y8" t="n">
-        <v>1201.12525314008</v>
+        <v>1634.158487398107</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>491.0887683560064</v>
+        <v>940.7932119894607</v>
       </c>
       <c r="C10" t="n">
-        <v>491.0887683560064</v>
+        <v>771.8570290615538</v>
       </c>
       <c r="D10" t="n">
-        <v>453.7539249574967</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="E10" t="n">
-        <v>305.8408313751036</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
         <v>305.8408313751036</v>
@@ -4957,10 +4957,10 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4996,16 +4996,16 @@
         <v>1216.838891429094</v>
       </c>
       <c r="V10" t="n">
-        <v>962.1544032232067</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="W10" t="n">
-        <v>672.7372331862462</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="X10" t="n">
-        <v>672.7372331862462</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="Y10" t="n">
-        <v>672.7372331862462</v>
+        <v>996.0463122855634</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5233,16 +5233,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1755.431557602304</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1466.014387565343</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1238.024836667326</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1017.232257523796</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5270,7 +5270,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
@@ -5297,13 +5297,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171283</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892214</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>414.4022433768856</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>266.4891497944925</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625876</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588915</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.896109690898</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.103530547368</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="17">
@@ -5501,34 +5501,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
         <v>402.7245934908939</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5789,10 +5789,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510507</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854705</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>516.5309703533131</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="29">
@@ -6455,25 +6455,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>718.550723916711</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2401.759668664206</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2401.759668664206</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2182.158203687148</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1893.082977031346</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1638.398488825459</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1348.981318788498</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1120.991767890481</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>900.1991887469508</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6780,19 +6780,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>727.9786782557277</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C34" t="n">
-        <v>559.0424953278208</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D34" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6892,16 +6892,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y34" t="n">
-        <v>909.6271430859674</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="35">
@@ -6911,58 +6911,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168601</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474783</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,13 +7008,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
         <v>427.7414352191925</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>94.65038286230612</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7312,22 +7312,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7491,19 +7491,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380724</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547835</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7725,19 +7725,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>54.95314511566525</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780638</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>54.95314511566545</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>375.9828400559575</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,13 +22556,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>168.0372383011667</v>
+        <v>395.2394490738175</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.1866975757052</v>
+        <v>179.8192178272022</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922705</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>139.9994244361447</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>146.9958004224552</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>59.18072286392697</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>5.095338001567882</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>138.4949402405086</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>115.0314858713396</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.62386594322819</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>211.9838267404999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>-6.699085858273953e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1137324.567146156</v>
+        <v>1137324.567146157</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1137324.567146156</v>
+        <v>1137324.567146157</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1137324.567146156</v>
+        <v>1137324.567146157</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1137324.567146156</v>
+        <v>1137324.567146157</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1137324.567146157</v>
+        <v>1137324.567146156</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1137324.567146156</v>
+        <v>1137324.567146157</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1137324.567146157</v>
+        <v>1137324.567146156</v>
       </c>
     </row>
     <row r="14">
@@ -26317,34 +26317,34 @@
         <v>287364.6194524993</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="E2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="F2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="G2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="H2" t="n">
         <v>282501.3098915021</v>
       </c>
-      <c r="F2" t="n">
-        <v>282501.3098915023</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="J2" t="n">
         <v>282501.3098915021</v>
       </c>
-      <c r="H2" t="n">
-        <v>282501.3098915023</v>
-      </c>
-      <c r="I2" t="n">
-        <v>282501.3098915023</v>
-      </c>
-      <c r="J2" t="n">
-        <v>282501.3098915022</v>
-      </c>
       <c r="K2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="L2" t="n">
         <v>282501.3098915022</v>
       </c>
       <c r="M2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="N2" t="n">
         <v>282501.3098915021</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363185</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75901.30525940968</v>
+        <v>75901.30525940965</v>
       </c>
       <c r="C4" t="n">
+        <v>134318.0002618637</v>
+      </c>
+      <c r="D4" t="n">
         <v>134318.0002618638</v>
-      </c>
-      <c r="D4" t="n">
-        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26433,28 +26433,28 @@
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731985</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731987</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426732029</v>
+        <v>8117.312426731987</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731872</v>
+        <v>8117.312426732029</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731986</v>
+        <v>8117.312426732038</v>
       </c>
       <c r="O4" t="n">
-        <v>16108.17168982545</v>
+        <v>16108.17168982544</v>
       </c>
       <c r="P4" t="n">
         <v>16108.17168982545</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1032047.935340133</v>
+        <v>-1032303.804579542</v>
       </c>
       <c r="C6" t="n">
-        <v>60108.84675079104</v>
+        <v>60108.84675079063</v>
       </c>
       <c r="D6" t="n">
-        <v>60108.84675079069</v>
+        <v>60108.84675079092</v>
       </c>
       <c r="E6" t="n">
-        <v>-334223.9739836828</v>
+        <v>-334258.7119091186</v>
       </c>
       <c r="F6" t="n">
-        <v>173261.4676408632</v>
+        <v>173226.7297154274</v>
       </c>
       <c r="G6" t="n">
-        <v>173261.467640863</v>
+        <v>173226.7297154274</v>
       </c>
       <c r="H6" t="n">
-        <v>173261.4676408631</v>
+        <v>173226.7297154273</v>
       </c>
       <c r="I6" t="n">
-        <v>173261.4676408631</v>
+        <v>173226.7297154274</v>
       </c>
       <c r="J6" t="n">
-        <v>5656.289830880545</v>
+        <v>5621.551905444823</v>
       </c>
       <c r="K6" t="n">
-        <v>173261.4676408631</v>
+        <v>173226.7297154273</v>
       </c>
       <c r="L6" t="n">
-        <v>173261.4676408631</v>
+        <v>173226.7297154274</v>
       </c>
       <c r="M6" t="n">
-        <v>40654.17391193658</v>
+        <v>40619.43598650066</v>
       </c>
       <c r="N6" t="n">
-        <v>173261.4676408631</v>
+        <v>173226.7297154273</v>
       </c>
       <c r="O6" t="n">
-        <v>148664.6139151266</v>
+        <v>148664.6139151267</v>
       </c>
       <c r="P6" t="n">
-        <v>168092.3319087585</v>
+        <v>168092.3319087584</v>
       </c>
     </row>
   </sheetData>
@@ -26722,7 +26722,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175393</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203981</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996093</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>6.751001607523051</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>87.66281911738054</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>141.1227945475953</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>45.11614831505594</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>233.8476371648125</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>225.4700257146447</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>9.998752907026955</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>3.4577938681783</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>87.71847392348886</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>167.1804071215238</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>125.1314108887956</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>111.6539780536877</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28068,16 +28068,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,16 +31835,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,10 +31853,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32072,22 +32072,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>182.7118610708585</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,19 +32309,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32485,7 +32485,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32707,7 +32707,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32789,28 +32789,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,7 +33500,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33977,7 +33977,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33989,10 +33989,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34211,7 +34211,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34226,7 +34226,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,10 +34445,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>117.9333660065827</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>304.6326742391977</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35267,13 +35267,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>418.4229873015965</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35483,16 +35483,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,10 +35501,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35720,22 +35720,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>55.8742344041918</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,10 +35978,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36133,10 +36133,10 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36294,7 +36294,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306624</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37637,10 +37637,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37874,7 +37874,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
